--- a/runs.xlsx
+++ b/runs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="rides" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t xml:space="preserve">dtime</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t xml:space="preserve">1:03:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-13 06:16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:38:36</t>
   </si>
 </sst>
 </file>
@@ -104,7 +116,7 @@
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
     <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -198,12 +210,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -213,28 +225,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.1581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4387755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6989795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="7.73979591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="3" width="9"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="10.6173469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="9"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="12.4183673469388"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="8.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="7.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,10 +370,72 @@
         <v>124</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <f aca="false">E2+D3</f>
+        <v>8.91</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">I3-I2</f>
+        <v>433</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1732</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <f aca="false">TIMEVALUE(J3)*(24*60)</f>
+        <v>38.6</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
